--- a/documents/個人制作.xlsx
+++ b/documents/個人制作.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" tabRatio="858" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" tabRatio="858" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム内容" sheetId="13" r:id="rId1"/>
@@ -24,24 +24,20 @@
     <sheet name="ステージ一覧" sheetId="22" r:id="rId10"/>
     <sheet name="ステージ１" sheetId="23" r:id="rId11"/>
     <sheet name="ステージ２" sheetId="24" r:id="rId12"/>
-    <sheet name="村" sheetId="2" r:id="rId13"/>
-    <sheet name="村人一覧" sheetId="5" r:id="rId14"/>
-    <sheet name="村人１" sheetId="6" r:id="rId15"/>
-    <sheet name="村人２" sheetId="7" r:id="rId16"/>
-    <sheet name="ボス一覧" sheetId="3" r:id="rId17"/>
-    <sheet name="ボス１" sheetId="4" r:id="rId18"/>
-    <sheet name="ボス２" sheetId="8" r:id="rId19"/>
-    <sheet name="雑魚敵一覧" sheetId="16" r:id="rId20"/>
-    <sheet name="プレイヤー" sheetId="9" r:id="rId21"/>
-    <sheet name="カメラ" sheetId="31" r:id="rId22"/>
-    <sheet name="コンボ" sheetId="30" r:id="rId23"/>
-    <sheet name="武器一覧" sheetId="10" r:id="rId24"/>
-    <sheet name="剣" sheetId="11" r:id="rId25"/>
-    <sheet name="弓" sheetId="12" r:id="rId26"/>
-    <sheet name="エフェクト一覧" sheetId="17" r:id="rId27"/>
-    <sheet name="使用モデル一覧" sheetId="18" r:id="rId28"/>
-    <sheet name="使用テクスチャ一覧" sheetId="19" r:id="rId29"/>
-    <sheet name="使用音楽一覧" sheetId="20" r:id="rId30"/>
+    <sheet name="ボス一覧" sheetId="3" r:id="rId13"/>
+    <sheet name="ボス１" sheetId="4" r:id="rId14"/>
+    <sheet name="ボス２" sheetId="8" r:id="rId15"/>
+    <sheet name="雑魚敵一覧" sheetId="16" r:id="rId16"/>
+    <sheet name="プレイヤー" sheetId="9" r:id="rId17"/>
+    <sheet name="カメラ" sheetId="31" r:id="rId18"/>
+    <sheet name="武器一覧" sheetId="10" r:id="rId19"/>
+    <sheet name="剣" sheetId="11" r:id="rId20"/>
+    <sheet name="操作方法" sheetId="33" r:id="rId21"/>
+    <sheet name="弓" sheetId="12" r:id="rId22"/>
+    <sheet name="エフェクト一覧" sheetId="17" r:id="rId23"/>
+    <sheet name="使用モデル一覧" sheetId="18" r:id="rId24"/>
+    <sheet name="使用テクスチャ一覧" sheetId="19" r:id="rId25"/>
+    <sheet name="使用音楽一覧" sheetId="20" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>弓と剣を使ってボスを倒すゲーム</t>
     <rPh sb="0" eb="1">
@@ -855,13 +851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>村</t>
-    <rPh sb="0" eb="1">
-      <t>ムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>人</t>
     <rPh sb="0" eb="1">
       <t>ヒト</t>
@@ -897,16 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>動くモデルを調整</t>
-    <rPh sb="0" eb="1">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>β</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,6 +1110,140 @@
     <t>定点カメラ？のようにする</t>
     <rPh sb="0" eb="2">
       <t>テイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手ぶら状態で剣攻撃ボタンが押されたら構えるアニメーションを再生する</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣を構えている状態で剣攻撃ボタンが押されたら1コンボ目の攻撃アニメーションを再生する</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(モンハンの受付みたいな)</t>
+    <rPh sb="6" eb="8">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム本編</t>
+    <rPh sb="3" eb="5">
+      <t>ホンペン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動くモデルを登る</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓を構えているとき</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端にキャラを映す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの前方向に近づく</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPSみたいに２つのボタンを使う</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4173,55 +4286,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15578</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="228600"/>
-          <a:ext cx="2537680" cy="3901778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5502,6 +5566,1555 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137160" y="12915900"/>
+          <a:ext cx="4511040" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="スマイル 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="14546580"/>
+          <a:ext cx="777240" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="12915900"/>
+          <a:ext cx="4511040" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="スマイル 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216140" y="14531340"/>
+          <a:ext cx="640080" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="594360"/>
+          <a:ext cx="9639300" cy="2903220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="1341120"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395460" y="1333500"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261860" y="1341120"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9479280" y="2674620"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>剣構え待機</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1634490"/>
+          <a:ext cx="670560" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8656320" y="1626870"/>
+          <a:ext cx="739140" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10092690" y="1920240"/>
+          <a:ext cx="83820" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894070" y="1927860"/>
+          <a:ext cx="3585210" cy="1040130"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7959090" y="1927860"/>
+          <a:ext cx="1520190" cy="1040130"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5981700" y="792480"/>
+          <a:ext cx="4099560" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10081260" y="762000"/>
+          <a:ext cx="11430" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5894070" y="815340"/>
+          <a:ext cx="148590" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="1333500"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>剣構え待機</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661160" y="1318260"/>
+          <a:ext cx="1394460" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手ぶら待機</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831080" y="1626870"/>
+          <a:ext cx="365760" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3055620" y="1611630"/>
+          <a:ext cx="381000" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="830580"/>
+          <a:ext cx="4762500" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="2689860"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カメラ移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="1303020"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラ移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5425440" y="1706880"/>
+          <a:ext cx="607859" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>剣攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1101327" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="678180"/>
+          <a:ext cx="1101327" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>盾</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロックオン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="701040"/>
+          <a:ext cx="607859" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>弓攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="2087880"/>
+          <a:ext cx="466794" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>走り</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="1082040"/>
+          <a:ext cx="748923" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ジャンプ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5880,14 +7493,144 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5895,10 +7638,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5919,12 +7670,60 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="H3:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5932,320 +7731,114 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6258,62 +7851,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H3:H13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H13" t="s">
-        <v>63</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6322,84 +8052,16 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6446,47 +8108,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6497,19 +8118,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6571,7 +8179,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
